--- a/Örnek 8 - İşlem (İleri Düzey).xlsx
+++ b/Örnek 8 - İşlem (İleri Düzey).xlsx
@@ -1,26 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kagan\Desktop\OneDrive_2018-12-18\Excel Uygulama\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/88a89685dae84bb8/Masaüstü/excel ödevi 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AAF960B9-8019-4467-A85E-69B182F268B5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ED6D11C9-C630-47EB-A087-07F8CD91DFFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9480"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="www.tugrulaktas.com" sheetId="1" r:id="rId1"/>
+    <sheet name="Sayfa1" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="114210"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">Sayfa1!$B$5:$E$5</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">Sayfa1!$B$6:$E$6</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">Sayfa1!$F$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">Sayfa1!$B$5:$E$5</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">Sayfa1!$B$6:$E$6</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">Sayfa1!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">Sayfa1!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">Sayfa1!$B$9:$E$9</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">Sayfa1!$F$3:$J$4</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">Sayfa1!$F$5:$J$5</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">Sayfa1!$F$6:$J$6</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">Sayfa1!$F$7:$J$7</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">Sayfa1!$B$7:$E$7</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">Sayfa1!$F$8:$J$8</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">Sayfa1!$F$9:$J$9</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">Sayfa1!$B$8:$E$8</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">Sayfa1!$B$9:$E$9</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">Sayfa1!$F$3:$J$4</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">Sayfa1!$F$5:$J$5</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">Sayfa1!$F$6:$J$6</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">Sayfa1!$F$7:$J$7</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">Sayfa1!$F$8:$J$8</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -28,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="35">
   <si>
     <t>Personel Bilgi Formu</t>
   </si>
@@ -127,12 +154,18 @@
   </si>
   <si>
     <t>Bölüm:</t>
+  </si>
+  <si>
+    <t>KÜBRA ÇABUK</t>
+  </si>
+  <si>
+    <t>YBS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -331,6 +364,1979 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="tr-TR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1800" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$F$3:$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Personel Bilgi Formu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Çalıştığı Yıl</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sayfa1!$B$5:$E$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11.06.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.05.2006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.06.2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.12.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.02.2002</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>İnsan Kaynakları</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bilgi İşlem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kerim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ergün</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Erhan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fatih</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Celal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$F$5:$F$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$G$3:$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Personel Bilgi Formu</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Maaş</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sayfa1!$B$5:$E$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11.06.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.05.2006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.06.2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.12.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.02.2002</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>İnsan Kaynakları</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bilgi İşlem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kerim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ergün</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Erhan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fatih</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Celal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$G$5:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>850</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>950</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1150</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1200</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$H$3:$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bugünün Tarihi:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>İkramiye</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sayfa1!$B$5:$E$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11.06.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.05.2006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.06.2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.12.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.02.2002</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>İnsan Kaynakları</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bilgi İşlem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kerim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ergün</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Erhan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fatih</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Celal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$H$5:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>127.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>237.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>287.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>480</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$I$3:$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Bugünün Tarihi:</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Durum1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sayfa1!$B$5:$E$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11.06.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.05.2006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.06.2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.12.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.02.2002</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>İnsan Kaynakları</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bilgi İşlem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kerim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ergün</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Erhan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fatih</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Celal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$I$5:$I$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sayfa1!$J$3:$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>7.02.2008</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Durum2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sayfa1!$B$5:$E$9</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="5"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>11.06.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>4.05.2006</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>1.06.2005</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>12.12.2004</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>6.02.2002</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>İnsan Kaynakları</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Muhasebe</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Bilgi İşlem</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Kerim</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Ergün</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Erhan</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Fatih</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Celal</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>6</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>7</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>8</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>9</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>10</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sayfa1!$J$5:$J$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>782</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1012</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1056</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>AD</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6">
+                <a:alpha val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="lt1">
+                  <a:alpha val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="tr-TR"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="dk1">
+                          <a:lumMod val="50000"/>
+                          <a:lumOff val="50000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-3A95-44A3-81F5-E073D20ACB71}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="65"/>
+        <c:axId val="1300496416"/>
+        <c:axId val="1348976928"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1300496416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="dk1">
+                <a:lumMod val="75000"/>
+                <a:lumOff val="25000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="dk1">
+                    <a:lumMod val="75000"/>
+                    <a:lumOff val="25000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="tr-TR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1348976928"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1348976928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:gradFill>
+                <a:gsLst>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="dk1">
+                      <a:lumMod val="95000"/>
+                      <a:lumOff val="5000"/>
+                      <a:alpha val="42000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="0">
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="75000"/>
+                      <a:alpha val="36000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1300496416"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="95000"/>
+            <a:alpha val="39000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="75000"/>
+                  <a:lumOff val="25000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="tr-TR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:gradFill flip="none" rotWithShape="1">
+      <a:gsLst>
+        <a:gs pos="0">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="39000">
+          <a:schemeClr val="lt1"/>
+        </a:gs>
+        <a:gs pos="100000">
+          <a:schemeClr val="lt1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:gs>
+      </a:gsLst>
+      <a:path path="circle">
+        <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+      </a:path>
+      <a:tileRect/>
+    </a:gradFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="25000"/>
+          <a:lumOff val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="tr-TR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="205">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200" cap="all" baseline="0"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:gradFill flip="none" rotWithShape="1">
+        <a:gsLst>
+          <a:gs pos="0">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="39000">
+            <a:schemeClr val="lt1"/>
+          </a:gs>
+          <a:gs pos="100000">
+            <a:schemeClr val="lt1">
+              <a:lumMod val="75000"/>
+            </a:schemeClr>
+          </a:gs>
+        </a:gsLst>
+        <a:path path="circle">
+          <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+        </a:path>
+        <a:tileRect/>
+      </a:gradFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+          <a:alpha val="75000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:alpha val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:gradFill>
+          <a:gsLst>
+            <a:gs pos="100000">
+              <a:schemeClr val="dk1">
+                <a:lumMod val="95000"/>
+                <a:lumOff val="5000"/>
+                <a:alpha val="42000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="0">
+              <a:schemeClr val="lt1">
+                <a:lumMod val="75000"/>
+                <a:alpha val="36000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:prstDash val="dash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="95000"/>
+          <a:alpha val="39000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="31750" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1800" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Grafik 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A4F4E99C-7188-4240-B620-1907F4F94F4A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -595,11 +2601,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="K14" sqref="K14"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -610,7 +2616,7 @@
     <col min="5" max="5" width="13.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="1"/>
     <col min="7" max="7" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
@@ -762,8 +2768,22 @@
       <c r="D8" s="3">
         <v>38149</v>
       </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
       <c r="F8" s="1">
         <v>950</v>
+      </c>
+      <c r="G8" s="1">
+        <f>IF(E8&lt;3,F8*0.15,IF(E8&lt;5,F8*0.25,F8*0.4))</f>
+        <v>237.5</v>
+      </c>
+      <c r="H8" s="1">
+        <v>10</v>
+      </c>
+      <c r="I8" s="1">
+        <f>IF(F8&lt;1001,F8*0.92,IF(F8&lt;1501,F8*0.88,F8*0.85))</f>
+        <v>874</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -779,8 +2799,22 @@
       <c r="D9" s="3">
         <v>38841</v>
       </c>
+      <c r="E9" s="1">
+        <v>2</v>
+      </c>
       <c r="F9" s="1">
         <v>850</v>
+      </c>
+      <c r="G9" s="1">
+        <f t="shared" ref="G9:G12" si="0">IF(E9&lt;3,F9*0.15,IF(E9&lt;5,F9*0.25,F9*0.4))</f>
+        <v>127.5</v>
+      </c>
+      <c r="H9" s="1">
+        <v>7</v>
+      </c>
+      <c r="I9" s="1">
+        <f t="shared" ref="I9:I12" si="1">IF(F9&lt;1001,F9*0.92,IF(F9&lt;1501,F9*0.88,F9*0.85))</f>
+        <v>782</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
@@ -796,8 +2830,22 @@
       <c r="D10" s="3">
         <v>38504</v>
       </c>
+      <c r="E10" s="1">
+        <v>3</v>
+      </c>
       <c r="F10" s="1">
         <v>950</v>
+      </c>
+      <c r="G10" s="1">
+        <f t="shared" si="0"/>
+        <v>237.5</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7</v>
+      </c>
+      <c r="I10" s="1">
+        <f t="shared" si="1"/>
+        <v>874</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -813,8 +2861,22 @@
       <c r="D11" s="3">
         <v>38333</v>
       </c>
+      <c r="E11" s="1">
+        <v>4</v>
+      </c>
       <c r="F11" s="1">
         <v>1150</v>
+      </c>
+      <c r="G11" s="1">
+        <f t="shared" si="0"/>
+        <v>287.5</v>
+      </c>
+      <c r="H11" s="1">
+        <v>7</v>
+      </c>
+      <c r="I11" s="1">
+        <f t="shared" si="1"/>
+        <v>1012</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -830,8 +2892,22 @@
       <c r="D12" s="3">
         <v>37293</v>
       </c>
+      <c r="E12" s="1">
+        <v>6</v>
+      </c>
       <c r="F12" s="1">
         <v>1200</v>
+      </c>
+      <c r="G12" s="1">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="H12" s="1">
+        <v>10</v>
+      </c>
+      <c r="I12" s="1">
+        <f t="shared" si="1"/>
+        <v>1056</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="3" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,7 +2928,9 @@
       <c r="K14" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="L14" s="16"/>
+      <c r="L14" s="16">
+        <v>20215070019</v>
+      </c>
       <c r="M14" s="16"/>
       <c r="N14" s="16"/>
     </row>
@@ -871,7 +2949,9 @@
       <c r="K15" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="L15" s="16"/>
+      <c r="L15" s="16" t="s">
+        <v>33</v>
+      </c>
       <c r="M15" s="16"/>
       <c r="N15" s="16"/>
     </row>
@@ -888,7 +2968,9 @@
       <c r="K16" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="L16" s="16"/>
+      <c r="L16" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="M16" s="16"/>
       <c r="N16" s="16"/>
     </row>
@@ -990,4 +3072,231 @@
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA9D0C0E-60CD-4EEC-99BD-AF0C9F167CB1}">
+  <dimension ref="B2:J9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N2" sqref="N2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="19.42578125" customWidth="1"/>
+    <col min="5" max="5" width="17.7109375" customWidth="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1"/>
+    <col min="9" max="9" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="2:10" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6">
+        <v>39485</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="3">
+        <v>38149</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>950</v>
+      </c>
+      <c r="H5" s="1">
+        <f>IF(F5&lt;3,G5*0.15,IF(F5&lt;5,G5*0.25,G5*0.4))</f>
+        <v>237.5</v>
+      </c>
+      <c r="I5" s="1">
+        <v>10</v>
+      </c>
+      <c r="J5" s="1">
+        <f>IF(G5&lt;1001,G5*0.92,IF(G5&lt;1501,G5*0.88,G5*0.85))</f>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>7</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6" s="3">
+        <v>38841</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>850</v>
+      </c>
+      <c r="H6" s="1">
+        <f t="shared" ref="H6:H9" si="0">IF(F6&lt;3,G6*0.15,IF(F6&lt;5,G6*0.25,G6*0.4))</f>
+        <v>127.5</v>
+      </c>
+      <c r="I6" s="1">
+        <v>7</v>
+      </c>
+      <c r="J6" s="1">
+        <f t="shared" ref="J6:J9" si="1">IF(G6&lt;1001,G6*0.92,IF(G6&lt;1501,G6*0.88,G6*0.85))</f>
+        <v>782</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>8</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="3">
+        <v>38504</v>
+      </c>
+      <c r="F7" s="1">
+        <v>3</v>
+      </c>
+      <c r="G7" s="1">
+        <v>950</v>
+      </c>
+      <c r="H7" s="1">
+        <f t="shared" si="0"/>
+        <v>237.5</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7</v>
+      </c>
+      <c r="J7" s="1">
+        <f t="shared" si="1"/>
+        <v>874</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>9</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" s="3">
+        <v>38333</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1150</v>
+      </c>
+      <c r="H8" s="1">
+        <f t="shared" si="0"/>
+        <v>287.5</v>
+      </c>
+      <c r="I8" s="1">
+        <v>7</v>
+      </c>
+      <c r="J8" s="1">
+        <f t="shared" si="1"/>
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B9" s="2">
+        <v>10</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E9" s="3">
+        <v>37293</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1200</v>
+      </c>
+      <c r="H9" s="1">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="I9" s="1">
+        <v>10</v>
+      </c>
+      <c r="J9" s="1">
+        <f t="shared" si="1"/>
+        <v>1056</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>